--- a/posts/_data/Data_Extract_From_World_Development_Indicators.xlsx
+++ b/posts/_data/Data_Extract_From_World_Development_Indicators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="SpreadsheetGear 5.1.1.178"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18080" windowHeight="9900"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Series - Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="40001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -304,133 +304,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Cambria"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -464,6 +342,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -751,410 +636,416 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="2" max="2" width="23.81640625" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="51.90625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row>
-      <c t="s">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>82</v>
       </c>
-      <c s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>68</v>
       </c>
-      <c t="s">
+      <c r="C1" t="s">
         <v>28</v>
       </c>
-      <c s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c t="s">
+      <c r="E1" t="s">
         <v>90</v>
       </c>
-      <c t="s">
+      <c r="F1" t="s">
         <v>83</v>
       </c>
-      <c t="s">
+      <c r="G1" t="s">
         <v>37</v>
       </c>
-      <c t="s">
+      <c r="H1" t="s">
         <v>29</v>
       </c>
-      <c t="s">
+      <c r="I1" t="s">
         <v>19</v>
       </c>
-      <c t="s">
+      <c r="J1" t="s">
         <v>67</v>
       </c>
-      <c t="s">
+      <c r="K1" t="s">
         <v>59</v>
       </c>
-      <c t="s">
+      <c r="L1" t="s">
         <v>50</v>
       </c>
-      <c t="s">
+      <c r="M1" t="s">
         <v>42</v>
       </c>
-      <c t="s">
+      <c r="N1" t="s">
         <v>87</v>
       </c>
-      <c t="s">
+      <c r="O1" t="s">
         <v>78</v>
       </c>
-      <c t="s">
+      <c r="P1" t="s">
         <v>71</v>
       </c>
-      <c t="s">
+      <c r="Q1" t="s">
         <v>26</v>
       </c>
-      <c t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c t="s">
+      <c r="S1" t="s">
         <v>4</v>
       </c>
-      <c t="s">
+      <c r="T1" t="s">
         <v>56</v>
       </c>
-      <c t="s">
+      <c r="U1" t="s">
         <v>46</v>
       </c>
-      <c t="s">
+      <c r="V1" t="s">
         <v>36</v>
       </c>
-      <c t="s">
+      <c r="W1" t="s">
         <v>85</v>
       </c>
-      <c t="s">
+      <c r="X1" t="s">
         <v>74</v>
       </c>
-      <c t="s">
+      <c r="Y1" t="s">
         <v>66</v>
       </c>
-      <c t="s">
+      <c r="Z1" t="s">
         <v>21</v>
       </c>
-      <c t="s">
+      <c r="AA1" t="s">
         <v>11</v>
       </c>
-      <c t="s">
+      <c r="AB1" t="s">
         <v>2</v>
       </c>
-      <c t="s">
+      <c r="AC1" t="s">
         <v>52</v>
       </c>
-      <c t="s">
+      <c r="AD1" t="s">
         <v>44</v>
       </c>
-      <c t="s">
+      <c r="AE1" t="s">
         <v>33</v>
       </c>
-      <c t="s">
+      <c r="AF1" t="s">
         <v>24</v>
       </c>
-      <c t="s">
+      <c r="AG1" t="s">
         <v>73</v>
       </c>
-      <c t="s">
+      <c r="AH1" t="s">
         <v>65</v>
       </c>
-      <c t="s">
+      <c r="AI1" t="s">
         <v>55</v>
       </c>
-      <c t="s">
+      <c r="AJ1" t="s">
         <v>9</v>
       </c>
-      <c t="s">
+      <c r="AK1" t="s">
         <v>91</v>
       </c>
-      <c t="s">
+      <c r="AL1" t="s">
         <v>84</v>
       </c>
-      <c t="s">
+      <c r="AM1" t="s">
         <v>40</v>
       </c>
-      <c t="s">
+      <c r="AN1" t="s">
         <v>31</v>
       </c>
-      <c t="s">
+      <c r="AO1" t="s">
         <v>20</v>
       </c>
-      <c t="s">
+      <c r="AP1" t="s">
         <v>70</v>
       </c>
-      <c t="s">
+      <c r="AQ1" t="s">
         <v>62</v>
       </c>
-      <c t="s">
+      <c r="AR1" t="s">
         <v>80</v>
       </c>
-      <c t="s">
+      <c r="AS1" t="s">
         <v>72</v>
       </c>
-      <c t="s">
+      <c r="AT1" t="s">
         <v>63</v>
       </c>
-      <c t="s">
+      <c r="AU1" t="s">
         <v>18</v>
       </c>
-      <c t="s">
+      <c r="AV1" t="s">
         <v>6</v>
       </c>
-      <c t="s">
+      <c r="AW1" t="s">
         <v>89</v>
       </c>
-      <c t="s">
+      <c r="AX1" t="s">
         <v>47</v>
       </c>
-      <c t="s">
+      <c r="AY1" t="s">
         <v>39</v>
       </c>
-      <c t="s">
+      <c r="AZ1" t="s">
         <v>30</v>
       </c>
-      <c t="s">
+      <c r="BA1" t="s">
         <v>75</v>
       </c>
-      <c t="s">
+      <c r="BB1" t="s">
         <v>69</v>
       </c>
-      <c t="s">
+      <c r="BC1" t="s">
         <v>61</v>
       </c>
-      <c t="s">
+      <c r="BD1" t="s">
         <v>12</v>
       </c>
-      <c t="s">
+      <c r="BE1" t="s">
         <v>3</v>
       </c>
-      <c t="s">
+      <c r="BF1" t="s">
         <v>88</v>
       </c>
-      <c t="s">
+      <c r="BG1" t="s">
         <v>77</v>
       </c>
-      <c t="s">
+      <c r="BH1" t="s">
         <v>34</v>
       </c>
-      <c t="s">
+      <c r="BI1" t="s">
         <v>27</v>
       </c>
-      <c t="s">
+      <c r="BJ1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>48</v>
       </c>
-      <c s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>38</v>
       </c>
-      <c t="s">
+      <c r="C2" t="s">
         <v>45</v>
       </c>
-      <c s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c>
+      <c r="E2">
         <v>3071596055</v>
       </c>
-      <c>
+      <c r="F2">
         <v>3124561005</v>
       </c>
-      <c>
+      <c r="G2">
         <v>3189655687</v>
       </c>
-      <c>
+      <c r="H2">
         <v>3255145692</v>
       </c>
-      <c>
+      <c r="I2">
         <v>3322046795</v>
       </c>
-      <c>
+      <c r="J2">
         <v>3392097729</v>
       </c>
-      <c>
+      <c r="K2">
         <v>3461619724</v>
       </c>
-      <c>
+      <c r="L2">
         <v>3532782993</v>
       </c>
-      <c>
+      <c r="M2">
         <v>3606553753</v>
       </c>
-      <c>
+      <c r="N2">
         <v>3681975908</v>
       </c>
-      <c>
+      <c r="O2">
         <v>3760516757</v>
       </c>
-      <c>
+      <c r="P2">
         <v>3836900801</v>
       </c>
-      <c>
+      <c r="Q2">
         <v>3912984371</v>
       </c>
-      <c>
+      <c r="R2">
         <v>3988487336</v>
       </c>
-      <c>
+      <c r="S2">
         <v>4062507027</v>
       </c>
-      <c>
+      <c r="T2">
         <v>4135432265</v>
       </c>
-      <c>
+      <c r="U2">
         <v>4207786422</v>
       </c>
-      <c>
+      <c r="V2">
         <v>4281339378</v>
       </c>
-      <c>
+      <c r="W2">
         <v>4356778367</v>
       </c>
-      <c>
+      <c r="X2">
         <v>4432963653</v>
       </c>
-      <c>
+      <c r="Y2">
         <v>4511164132</v>
       </c>
-      <c>
+      <c r="Z2">
         <v>4592387213</v>
       </c>
-      <c>
+      <c r="AA2">
         <v>4674330282</v>
       </c>
-      <c>
+      <c r="AB2">
         <v>4755996689</v>
       </c>
-      <c>
+      <c r="AC2">
         <v>4839176734</v>
       </c>
-      <c>
+      <c r="AD2">
         <v>4924747934</v>
       </c>
-      <c>
+      <c r="AE2">
         <v>5012556248</v>
       </c>
-      <c>
+      <c r="AF2">
         <v>5101287675</v>
       </c>
-      <c>
+      <c r="AG2">
         <v>5189977062</v>
       </c>
-      <c>
+      <c r="AH2">
         <v>5280046096</v>
       </c>
-      <c>
+      <c r="AI2">
         <v>5368139468</v>
       </c>
-      <c>
+      <c r="AJ2">
         <v>5452576447</v>
       </c>
-      <c>
+      <c r="AK2">
         <v>5537885552</v>
       </c>
-      <c>
+      <c r="AL2">
         <v>5622085788</v>
       </c>
-      <c>
+      <c r="AM2">
         <v>5706753900</v>
       </c>
-      <c>
+      <c r="AN2">
         <v>5789655609</v>
       </c>
-      <c>
+      <c r="AO2">
         <v>5872286683</v>
       </c>
-      <c>
+      <c r="AP2">
         <v>5954005906</v>
       </c>
-      <c>
+      <c r="AQ2">
         <v>6034491620</v>
       </c>
-      <c>
+      <c r="AR2">
         <v>6114332517</v>
       </c>
-      <c>
+      <c r="AS2">
         <v>6193671694</v>
       </c>
-      <c>
+      <c r="AT2">
         <v>6272753009</v>
       </c>
-      <c>
+      <c r="AU2">
         <v>6351882385</v>
       </c>
-      <c>
+      <c r="AV2">
         <v>6431551721</v>
       </c>
-      <c>
+      <c r="AW2">
         <v>6511748273</v>
       </c>
-      <c>
+      <c r="AX2">
         <v>6592734559</v>
       </c>
-      <c>
+      <c r="AY2">
         <v>6674203697</v>
       </c>
-      <c>
+      <c r="AZ2">
         <v>6757020825</v>
       </c>
-      <c>
+      <c r="BA2">
         <v>6839574233</v>
       </c>
-      <c>
+      <c r="BB2">
         <v>6921877071</v>
       </c>
-      <c>
+      <c r="BC2">
         <v>7002880914</v>
       </c>
-      <c>
+      <c r="BD2">
         <v>7085790438</v>
       </c>
-      <c>
+      <c r="BE2">
         <v>7169675197</v>
       </c>
-      <c>
+      <c r="BF2">
         <v>7254292848</v>
       </c>
-      <c>
+      <c r="BG2">
         <v>7339076654</v>
       </c>
-      <c>
+      <c r="BH2">
         <v>7424484741</v>
       </c>
-      <c>
+      <c r="BI2">
         <v>7509410228</v>
       </c>
-      <c>
+      <c r="BJ2">
         <v>7592475615</v>
       </c>
     </row>
-    <row>
+    <row r="3" spans="1:62" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row>
+    <row r="4" spans="1:62" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row>
+    <row r="5" spans="1:62" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row>
-      <c t="s">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c s="1"/>
+      <c r="B6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row>
-      <c t="s">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1164,96 +1055,96 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.8125" customWidth="1"/>
-    <col min="2" max="13" width="50.8125" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="2" max="13" width="50.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row>
-      <c s="2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
-      <c s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>43</v>
       </c>
-      <c s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>86</v>
       </c>
-      <c s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>58</v>
       </c>
-      <c s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>81</v>
       </c>
-      <c s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>51</v>
       </c>
-      <c s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>60</v>
       </c>
-      <c s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>76</v>
       </c>
-      <c s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
-      <c s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>41</v>
       </c>
-      <c s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>54</v>
       </c>
-      <c s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row>
-      <c s="2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
-      <c s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>49</v>
       </c>
-      <c s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>48</v>
       </c>
-      <c s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>64</v>
       </c>
-      <c s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
-      <c s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>23</v>
       </c>
-      <c s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>53</v>
       </c>
-      <c s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>35</v>
       </c>
-      <c s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>32</v>
       </c>
-      <c s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>57</v>
       </c>
-      <c s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>22</v>
       </c>
-      <c s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
